--- a/includes/pages/documentation/KiezCorner-relationales_Modell.xlsx
+++ b/includes/pages/documentation/KiezCorner-relationales_Modell.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\OneDrive\WS1617\Progr. Webanwendungen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FH\WS1617\Progr.Webanwendung\XAMPP\htdocs\Kiez-Corner\includes\pages\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5664"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5670"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="64">
   <si>
     <t>not null</t>
   </si>
@@ -65,12 +65,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>ZIP</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
@@ -207,6 +201,21 @@
   </si>
   <si>
     <t>Foreign Key to Advertisements -&gt;AdvID</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>A_ZIP</t>
+  </si>
+  <si>
+    <t>A_Phone</t>
+  </si>
+  <si>
+    <t>M_Phone</t>
+  </si>
+  <si>
+    <t>M_ZIP</t>
   </si>
 </sst>
 </file>
@@ -809,26 +818,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.5546875" style="5"/>
+    <col min="10" max="10" width="28.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.5703125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
@@ -836,13 +845,13 @@
       <c r="C1" s="25"/>
       <c r="D1" s="26"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -856,12 +865,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>0</v>
@@ -870,96 +879,96 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="15"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="15"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="15"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="9"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="15"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
+      <c r="C10" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="15"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="15"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>19</v>
-      </c>
       <c r="C11" s="12" t="s">
         <v>0</v>
       </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>2</v>
       </c>
@@ -967,13 +976,13 @@
       <c r="C14" s="25"/>
       <c r="D14" s="26"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="27"/>
       <c r="B15" s="28"/>
       <c r="C15" s="28"/>
       <c r="D15" s="29"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>6</v>
       </c>
@@ -987,12 +996,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>0</v>
@@ -1001,125 +1010,125 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="9" t="s">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="22" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
+      <c r="C19" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="22" t="s">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="9" t="s">
+      <c r="B20" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="23"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
+      <c r="B21" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="C21" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="23"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="23"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
+      <c r="C23" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B24" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="23"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="11" t="s">
+      <c r="B25" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="19"/>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
     </row>
-    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="19"/>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="24" t="s">
         <v>3</v>
       </c>
@@ -1127,13 +1136,13 @@
       <c r="C28" s="25"/>
       <c r="D28" s="26"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="27"/>
       <c r="B29" s="28"/>
       <c r="C29" s="28"/>
       <c r="D29" s="29"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>6</v>
       </c>
@@ -1147,12 +1156,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>0</v>
@@ -1161,48 +1170,48 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="15"/>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D33" s="15"/>
-    </row>
-    <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="11" t="s">
+      <c r="B34" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="C34" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
         <v>5</v>
       </c>
@@ -1210,13 +1219,13 @@
       <c r="C37" s="25"/>
       <c r="D37" s="26"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="27"/>
       <c r="B38" s="28"/>
       <c r="C38" s="28"/>
       <c r="D38" s="29"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -1230,12 +1239,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>0</v>
@@ -1244,32 +1253,32 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" s="9"/>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D41" s="9"/>
-    </row>
-    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="11" t="s">
-        <v>52</v>
-      </c>
       <c r="B42" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C42" s="12" t="s">
         <v>0</v>
       </c>
       <c r="D42" s="4"/>
     </row>
-    <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="24" t="s">
         <v>4</v>
       </c>
@@ -1277,13 +1286,13 @@
       <c r="C45" s="25"/>
       <c r="D45" s="26"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="27"/>
       <c r="B46" s="28"/>
       <c r="C46" s="28"/>
       <c r="D46" s="29"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>6</v>
       </c>
@@ -1297,12 +1306,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>0</v>
@@ -1311,90 +1320,90 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D49" s="9"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="B50" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50" s="17"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C50" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D50" s="17"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="14" t="s">
+      <c r="C51" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51" s="17"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B51" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D51" s="17"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="14" t="s">
-        <v>56</v>
-      </c>
       <c r="B52" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C52" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D52" s="15"/>
     </row>
-    <row r="53" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C53" s="12" t="s">
         <v>0</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="19"/>
       <c r="B54" s="18"/>
       <c r="C54" s="18"/>
       <c r="D54" s="18"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="19"/>
       <c r="D55" s="18"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="19"/>
       <c r="B56" s="18"/>
       <c r="C56" s="18"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="19"/>
       <c r="B57" s="18"/>
       <c r="C57" s="18"/>
       <c r="D57" s="18"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="19"/>
       <c r="B58" s="18"/>
       <c r="C58" s="18"/>
